--- a/data/case1/20/Q1_3.xlsx
+++ b/data/case1/20/Q1_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.23245017699452575</v>
+        <v>0.30423342464539616</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999577655672</v>
+        <v>-0.030381441205175719</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999615538684</v>
+        <v>-0.0039999999953463927</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999302931002</v>
+        <v>-0.0079999999918545228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.030443197153968704</v>
+        <v>-0.0029999999950103273</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999514030975</v>
+        <v>-0.0019999999944477764</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999998971029846</v>
+        <v>-0.009999999988560937</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998955375702</v>
+        <v>0.0044535460831327534</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.001999999948329112</v>
+        <v>-0.0019999999941759938</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999475768249</v>
+        <v>-0.0019999999940285562</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999409460187</v>
+        <v>-0.0029999999932952548</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999375417978</v>
+        <v>-0.003499999992883307</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999379987656</v>
+        <v>-0.0034999999928011505</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999081712403</v>
+        <v>-0.00799999998950085</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.016223413085326932</v>
+        <v>0.013857821434005047</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0030244467318745194</v>
+        <v>-0.0019999999939219748</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999482855912</v>
+        <v>-0.0019999999938358215</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999345905479</v>
+        <v>-0.0039999999923390206</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.051637176108399796</v>
+        <v>-0.0039999999967443856</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999683058007</v>
+        <v>-0.007596566054196785</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999679940501</v>
+        <v>-0.0039999999964717148</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.00399999996777467</v>
+        <v>-0.0039999999964370758</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999525676131</v>
+        <v>-0.069024928240546402</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999847549077</v>
+        <v>-0.019999999982576178</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999845571104</v>
+        <v>-0.019999999982356798</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999461225997</v>
+        <v>-0.0024999999939012696</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999430468378</v>
+        <v>-0.0024999999935553241</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999319892936</v>
+        <v>-0.0019999999926731959</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999998887260162</v>
+        <v>-0.0069999999880003827</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999527213799</v>
+        <v>-0.059999999948468385</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.006999999880665797</v>
+        <v>-0.0069999999871566132</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.009999999860008657</v>
+        <v>-0.0099999999848847665</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999002784392</v>
+        <v>-0.0039999999892899041</v>
       </c>
     </row>
   </sheetData>
